--- a/Dico Fil Rouge.xlsx
+++ b/Dico Fil Rouge.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Awagn\Desktop\DWWM\Fil Rouge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Awagn\Desktop\Formation Dev\DWWM\Fil Rouge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34BA5ED-CA7A-4CEF-B78C-29B9A5971958}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA35EE74-1980-4375-8AF4-BCC6577D51D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{DE9E3A8A-11D9-43DE-A437-3D74D05D4394}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14850" windowHeight="15750" xr2:uid="{DE9E3A8A-11D9-43DE-A437-3D74D05D4394}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="111">
   <si>
     <t>Code</t>
   </si>
@@ -75,18 +75,9 @@
     <t>cli_name</t>
   </si>
   <si>
-    <t>cli_address</t>
-  </si>
-  <si>
     <t>cli_phone</t>
   </si>
   <si>
-    <t>cli_city</t>
-  </si>
-  <si>
-    <t>cli_country</t>
-  </si>
-  <si>
     <t>cli_ref</t>
   </si>
   <si>
@@ -147,15 +138,6 @@
     <t>Nom du client</t>
   </si>
   <si>
-    <t>Adresse du client</t>
-  </si>
-  <si>
-    <t>Ville du client</t>
-  </si>
-  <si>
-    <t>Pays du client</t>
-  </si>
-  <si>
     <t>Numéro de téléphone du client</t>
   </si>
   <si>
@@ -231,12 +213,6 @@
     <t>ID du fournisseur</t>
   </si>
   <si>
-    <t>salesrep_id</t>
-  </si>
-  <si>
-    <t>ID du commercial</t>
-  </si>
-  <si>
     <t>subcat_name</t>
   </si>
   <si>
@@ -249,12 +225,6 @@
     <t>Nom de la catégorie</t>
   </si>
   <si>
-    <t>salesrep_name</t>
-  </si>
-  <si>
-    <t>Nom du commercial</t>
-  </si>
-  <si>
     <t>sup_name</t>
   </si>
   <si>
@@ -273,16 +243,121 @@
     <t>Unique + Regex</t>
   </si>
   <si>
-    <t>cat_numero</t>
-  </si>
-  <si>
-    <t>Numéro de la catégorie</t>
-  </si>
-  <si>
     <t>com_archive</t>
   </si>
   <si>
     <t>Archive de la commande</t>
+  </si>
+  <si>
+    <t>cli_surname</t>
+  </si>
+  <si>
+    <t>Prénom du client</t>
+  </si>
+  <si>
+    <t>cli_billaddress</t>
+  </si>
+  <si>
+    <t>cli_billcity</t>
+  </si>
+  <si>
+    <t>cli_billzip</t>
+  </si>
+  <si>
+    <t>cli_deliaddress</t>
+  </si>
+  <si>
+    <t>cli_delicity</t>
+  </si>
+  <si>
+    <t>cli_delizip</t>
+  </si>
+  <si>
+    <t>Adresse de facturation du client</t>
+  </si>
+  <si>
+    <t>Ville de facturation du client</t>
+  </si>
+  <si>
+    <t>Code postal de facturation du client</t>
+  </si>
+  <si>
+    <t>Adresse de livraison du client</t>
+  </si>
+  <si>
+    <t>Ville  de livraison du client</t>
+  </si>
+  <si>
+    <t>Code postal de livraison du client</t>
+  </si>
+  <si>
+    <t>cli_nickname</t>
+  </si>
+  <si>
+    <t>cli_mail</t>
+  </si>
+  <si>
+    <t>cli_password</t>
+  </si>
+  <si>
+    <t>cli_coeff</t>
+  </si>
+  <si>
+    <t>Pseudonyme du client</t>
+  </si>
+  <si>
+    <t>Adresse e-mail du client</t>
+  </si>
+  <si>
+    <t>Mot de passe du client</t>
+  </si>
+  <si>
+    <t>Coefficient du client</t>
+  </si>
+  <si>
+    <t>sup_ref</t>
+  </si>
+  <si>
+    <t>Référence du fournisseur</t>
+  </si>
+  <si>
+    <t>sup_surname</t>
+  </si>
+  <si>
+    <t>Prénom du fournisseur</t>
+  </si>
+  <si>
+    <t>sup_address</t>
+  </si>
+  <si>
+    <t>sup_zip</t>
+  </si>
+  <si>
+    <t>sup_phone</t>
+  </si>
+  <si>
+    <t>sup_mail</t>
+  </si>
+  <si>
+    <t>Adresse du fournisseur</t>
+  </si>
+  <si>
+    <t>Code postal du fournisseur</t>
+  </si>
+  <si>
+    <t>Numéro de téléphone du fournisseur</t>
+  </si>
+  <si>
+    <t>Adresse e-mail du fournisseur</t>
+  </si>
+  <si>
+    <t>emp_surname</t>
+  </si>
+  <si>
+    <t>Prénom de l'employé</t>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
   </si>
 </sst>
 </file>
@@ -351,8 +426,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{6ECF41A5-D7EB-47DA-8747-E829AD9BA81F}" name="Table8" displayName="Table8" ref="A1:E40" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:E40" xr:uid="{E623DEBC-E3A8-4EEA-9BCB-EC52CF429C2D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{6ECF41A5-D7EB-47DA-8747-E829AD9BA81F}" name="Table8" displayName="Table8" ref="A1:E49" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:E49" xr:uid="{E623DEBC-E3A8-4EEA-9BCB-EC52CF429C2D}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{85668606-6C33-4A2F-A6A8-3508C6036B86}" name="Code"/>
     <tableColumn id="2" xr3:uid="{9D426AF0-9A6A-4F1D-81E7-6F9EE440620C}" name="Libellé"/>
@@ -661,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E6FF10-B463-4628-B9FF-B17BE6586E09}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,69 +770,66 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
         <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -765,356 +837,488 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>70</v>
+      </c>
+      <c r="D16" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>24</v>
+      </c>
+      <c r="D20" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="C27" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>24</v>
+      </c>
+      <c r="D28" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C29" t="s">
-        <v>52</v>
+        <v>46</v>
+      </c>
+      <c r="D29" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
+        <v>24</v>
+      </c>
+      <c r="D32" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>96</v>
+      </c>
+      <c r="B42" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>66</v>
+      </c>
+      <c r="B44" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>100</v>
+      </c>
+      <c r="B45" t="s">
+        <v>104</v>
+      </c>
+      <c r="C45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>101</v>
+      </c>
+      <c r="B46" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>102</v>
+      </c>
+      <c r="B47" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>103</v>
+      </c>
+      <c r="B48" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
